--- a/medicine/Mort/Cimetière_des_Frères/Cimetière_des_Frères.xlsx
+++ b/medicine/Mort/Cimetière_des_Frères/Cimetière_des_Frères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Fr%C3%A8res</t>
+          <t>Cimetière_des_Frères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Frères (en letton : Brāļu kapi) est une nécropole militaire située à Riga en Lettonie[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Frères (en letton : Brāļu kapi) est une nécropole militaire située à Riga en Lettonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Fr%C3%A8res</t>
+          <t>Cimetière_des_Frères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est le plus grand cimetière militaire de Lettonie. Il s'étend sur 9 hectares au nord-est de la ville de Riga.
 Le cimetière est un mémorial et un lieu de sépulture pour des milliers de soldats lettons qui ont été tués entre 1915 et 1920 pendant la Première Guerre mondiale et la guerre d'indépendance.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Fr%C3%A8res</t>
+          <t>Cimetière_des_Frères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Inhumations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ 2 000 soldats sont enterrés au cimetière des Frères. À partir d'octobre 1915, les fusiliers morts au cours des batailles de la Première Guerre mondiale y furent enterrés. Après la révolution de février 1917, les soldats abattus pour avoir refusé de combattre dans l'armée tsariste furent enterrés et, au printemps 1919, les tirailleurs rouges lettons morts dans la lutte contre la contre-révolution y furent enterrés. Le leader du mouvement révolutionnaire en Lettonie, Fricis Roziņš (lv) (1870-1919), y est aussi enterré.
 Pendant les années d'indépendance de la Lettonie, les officiers de l'armée lettone ont été enterrés au cimetière fraternel.
